--- a/reports/_SM LINE CORPORATION_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-10-08_27_.xlsx
+++ b/reports/_SM LINE CORPORATION_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-10-08_27_.xlsx
@@ -385,12 +385,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -531,12 +532,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -556,7 +558,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -677,12 +679,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -696,7 +699,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -764,212 +767,220 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>Unstuffing Date</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>In Transport</t>
         </is>
       </c>
-      <c r="AD6" s="4" t="inlineStr">
+      <c r="AD7" s="4" t="inlineStr">
         <is>
           <t>In Trailer</t>
         </is>
       </c>
-      <c r="AE6" s="4" t="inlineStr">
+      <c r="AE7" s="4" t="inlineStr">
         <is>
           <t>Trailer #</t>
         </is>
       </c>
-      <c r="AF6" s="4" t="inlineStr">
+      <c r="AF7" s="4" t="inlineStr">
         <is>
           <t>In Remarks</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1110,12 +1121,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1129,7 +1141,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -1199,215 +1211,223 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>CNFCommodity</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Current Depo</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>Out Date</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>Out Location</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>Total Lot</t>
         </is>
       </c>
-      <c r="AD6" s="4" t="inlineStr">
+      <c r="AD7" s="4" t="inlineStr">
         <is>
           <t>Total Weight</t>
         </is>
       </c>
-      <c r="AE6" s="4" t="inlineStr">
+      <c r="AE7" s="4" t="inlineStr">
         <is>
           <t>Out Transport</t>
         </is>
       </c>
-      <c r="AF6" s="4" t="inlineStr">
+      <c r="AF7" s="4" t="inlineStr">
         <is>
           <t>Out Remarks</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
-      <c r="AF7" s="0"/>
-      <c r="AG7" s="0"/>
-      <c r="AH7" s="0"/>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1548,12 +1568,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1567,7 +1588,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -1632,268 +1653,168 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Trailer #</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>In Transport</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>In Remarks</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>9350</v>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>FCIU4637126</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>CTS</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>SMU</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>KOTA BINTANG</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>2620/2018</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>DAIMON LOGISTICS BD LTD</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0" t="inlineStr">
-        <is>
-          <t>ROUGH GRANITE BLOCKS</t>
-        </is>
-      </c>
-      <c r="Q7" s="0" t="inlineStr">
-        <is>
-          <t>CH4796901</t>
-        </is>
-      </c>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0" t="inlineStr">
-        <is>
-          <t>2018-15066</t>
-        </is>
-      </c>
-      <c r="T7" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="U7" s="0" t="d">
-        <v>2018-09-08T00:00:00</v>
-      </c>
-      <c r="V7" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="W7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="0" t="inlineStr">
-        <is>
-          <t>SMLMTSXJ8A484500</t>
-        </is>
-      </c>
-      <c r="Z7" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>9351</v>
+        <v>9350</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>FCIU4050627</t>
+          <t>FCIU4637126</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -1950,20 +1871,20 @@
       </c>
       <c r="Q8" s="0" t="inlineStr">
         <is>
-          <t>CH4796920</t>
+          <t>CH4796901</t>
         </is>
       </c>
       <c r="R8" s="0"/>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>2018-15174</t>
+          <t>2018-15066</t>
         </is>
       </c>
       <c r="T8" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="U8" s="0" t="d">
-        <v>2018-09-10T00:00:00</v>
+        <v>2018-09-08T00:00:00</v>
       </c>
       <c r="V8" s="0" t="inlineStr">
         <is>
@@ -1996,11 +1917,11 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>9352</v>
+        <v>9351</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>CAXU3361530</t>
+          <t>FCIU4050627</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -2057,13 +1978,13 @@
       </c>
       <c r="Q9" s="0" t="inlineStr">
         <is>
-          <t>CH4796913</t>
+          <t>CH4796920</t>
         </is>
       </c>
       <c r="R9" s="0"/>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>2018-15168</t>
+          <t>2018-15174</t>
         </is>
       </c>
       <c r="T9" s="0" t="d">
@@ -2103,11 +2024,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>9353</v>
+        <v>9352</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>DRYU2133094</t>
+          <t>CAXU3361530</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -2164,13 +2085,13 @@
       </c>
       <c r="Q10" s="0" t="inlineStr">
         <is>
-          <t>CH4796916</t>
+          <t>CH4796913</t>
         </is>
       </c>
       <c r="R10" s="0"/>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>2018-15178</t>
+          <t>2018-15168</t>
         </is>
       </c>
       <c r="T10" s="0" t="d">
@@ -2210,11 +2131,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>9354</v>
+        <v>9353</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>FCIU4729109</t>
+          <t>DRYU2133094</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -2271,13 +2192,13 @@
       </c>
       <c r="Q11" s="0" t="inlineStr">
         <is>
-          <t>CH4796902</t>
+          <t>CH4796916</t>
         </is>
       </c>
       <c r="R11" s="0"/>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>2018-15173</t>
+          <t>2018-15178</t>
         </is>
       </c>
       <c r="T11" s="0" t="d">
@@ -2317,11 +2238,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>9355</v>
+        <v>9354</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>DRYU2140175</t>
+          <t>FCIU4729109</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -2378,13 +2299,13 @@
       </c>
       <c r="Q12" s="0" t="inlineStr">
         <is>
-          <t>CH4796917</t>
+          <t>CH4796902</t>
         </is>
       </c>
       <c r="R12" s="0"/>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>2018-15176</t>
+          <t>2018-15173</t>
         </is>
       </c>
       <c r="T12" s="0" t="d">
@@ -2424,11 +2345,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>9356</v>
+        <v>9355</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>DRYU2963126</t>
+          <t>DRYU2140175</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -2485,13 +2406,13 @@
       </c>
       <c r="Q13" s="0" t="inlineStr">
         <is>
-          <t>CH4796918</t>
+          <t>CH4796917</t>
         </is>
       </c>
       <c r="R13" s="0"/>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>2018-15175</t>
+          <t>2018-15176</t>
         </is>
       </c>
       <c r="T13" s="0" t="d">
@@ -2531,11 +2452,11 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>9357</v>
+        <v>9356</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>BSIU3143466</t>
+          <t>DRYU2963126</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -2592,13 +2513,13 @@
       </c>
       <c r="Q14" s="0" t="inlineStr">
         <is>
-          <t>CH4796911</t>
+          <t>CH4796918</t>
         </is>
       </c>
       <c r="R14" s="0"/>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>2018-15172</t>
+          <t>2018-15175</t>
         </is>
       </c>
       <c r="T14" s="0" t="d">
@@ -2638,11 +2559,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>9358</v>
+        <v>9357</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>CAIU3341023</t>
+          <t>BSIU3143466</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2699,13 +2620,13 @@
       </c>
       <c r="Q15" s="0" t="inlineStr">
         <is>
-          <t>CH4796912</t>
+          <t>CH4796911</t>
         </is>
       </c>
       <c r="R15" s="0"/>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>2018-15190</t>
+          <t>2018-15172</t>
         </is>
       </c>
       <c r="T15" s="0" t="d">
@@ -2745,11 +2666,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>9359</v>
+        <v>9358</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>TDRU1057390</t>
+          <t>CAIU3341023</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2806,13 +2727,13 @@
       </c>
       <c r="Q16" s="0" t="inlineStr">
         <is>
-          <t>CH4796919</t>
+          <t>CH4796912</t>
         </is>
       </c>
       <c r="R16" s="0"/>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>2018-15028</t>
+          <t>2018-15190</t>
         </is>
       </c>
       <c r="T16" s="0" t="d">
@@ -2852,11 +2773,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>9360</v>
+        <v>9359</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>CCLU3380797</t>
+          <t>TDRU1057390</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -2913,20 +2834,20 @@
       </c>
       <c r="Q17" s="0" t="inlineStr">
         <is>
-          <t>CH4796914</t>
+          <t>CH4796919</t>
         </is>
       </c>
       <c r="R17" s="0"/>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>2018-15397</t>
+          <t>2018-15028</t>
         </is>
       </c>
       <c r="T17" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="U17" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
+        <v>2018-09-10T00:00:00</v>
       </c>
       <c r="V17" s="0" t="inlineStr">
         <is>
@@ -2959,11 +2880,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>9361</v>
+        <v>9360</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>CCLU3460526</t>
+          <t>CCLU3380797</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -3020,13 +2941,13 @@
       </c>
       <c r="Q18" s="0" t="inlineStr">
         <is>
-          <t>CH4796915</t>
+          <t>CH4796914</t>
         </is>
       </c>
       <c r="R18" s="0"/>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>2018-15198</t>
+          <t>2018-15397</t>
         </is>
       </c>
       <c r="T18" s="0" t="d">
@@ -3064,14 +2985,122 @@
       </c>
       <c r="AC18" s="0"/>
     </row>
+    <row r="19">
+      <c r="A19" s="0" t="n">
+        <v>9361</v>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>CCLU3460526</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>CTS</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>SMU</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>KOTA BINTANG</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>2620/2018</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>DAIMON LOGISTICS BD LTD</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0" t="inlineStr">
+        <is>
+          <t>ROUGH GRANITE BLOCKS</t>
+        </is>
+      </c>
+      <c r="Q19" s="0" t="inlineStr">
+        <is>
+          <t>CH4796915</t>
+        </is>
+      </c>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0" t="inlineStr">
+        <is>
+          <t>2018-15198</t>
+        </is>
+      </c>
+      <c r="T19" s="0" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="U19" s="0" t="d">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="V19" s="0" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="W19" s="0" t="inlineStr">
+        <is>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="0" t="inlineStr">
+        <is>
+          <t>SMLMTSXJ8A484500</t>
+        </is>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA19" s="0"/>
+      <c r="AB19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC19" s="0"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -3224,12 +3253,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -3243,7 +3273,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -3301,148 +3331,156 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Vessel</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
